--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Itga9.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Itga9.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H2">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.32087666112309</v>
+        <v>1.752878</v>
       </c>
       <c r="N2">
-        <v>1.32087666112309</v>
+        <v>5.258634</v>
       </c>
       <c r="O2">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="P2">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="Q2">
-        <v>33.642401155211</v>
+        <v>71.43572309359067</v>
       </c>
       <c r="R2">
-        <v>33.642401155211</v>
+        <v>642.921507842316</v>
       </c>
       <c r="S2">
-        <v>0.001963701962995897</v>
+        <v>0.002929533003583409</v>
       </c>
       <c r="T2">
-        <v>0.001963701962995897</v>
+        <v>0.002929533003583409</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H3">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.98664895049035</v>
+        <v>3.076282333333333</v>
       </c>
       <c r="N3">
-        <v>2.98664895049035</v>
+        <v>9.228847</v>
       </c>
       <c r="O3">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="P3">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="Q3">
-        <v>76.06920847307099</v>
+        <v>125.3689377821531</v>
       </c>
       <c r="R3">
-        <v>76.06920847307099</v>
+        <v>1128.320440039378</v>
       </c>
       <c r="S3">
-        <v>0.004440148410125477</v>
+        <v>0.005141299408082351</v>
       </c>
       <c r="T3">
-        <v>0.004440148410125477</v>
+        <v>0.005141299408082352</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H4">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I4">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J4">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.51479437242924</v>
+        <v>7.303088666666667</v>
       </c>
       <c r="N4">
-        <v>4.51479437242924</v>
+        <v>21.909266</v>
       </c>
       <c r="O4">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="P4">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="Q4">
-        <v>114.9906935908828</v>
+        <v>297.6256303746982</v>
       </c>
       <c r="R4">
-        <v>114.9906935908828</v>
+        <v>2678.630673372284</v>
       </c>
       <c r="S4">
-        <v>0.006711989720617789</v>
+        <v>0.0122054354479296</v>
       </c>
       <c r="T4">
-        <v>0.006711989720617789</v>
+        <v>0.0122054354479296</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H5">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I5">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J5">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.520977895375448</v>
+        <v>0.5918243333333334</v>
       </c>
       <c r="N5">
-        <v>0.520977895375448</v>
+        <v>1.775473</v>
       </c>
       <c r="O5">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="P5">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="Q5">
-        <v>13.26917786125155</v>
+        <v>24.11884865692245</v>
       </c>
       <c r="R5">
-        <v>13.26917786125155</v>
+        <v>217.069637912302</v>
       </c>
       <c r="S5">
-        <v>0.000774519942654133</v>
+        <v>0.0009890984522732036</v>
       </c>
       <c r="T5">
-        <v>0.000774519942654133</v>
+        <v>0.0009890984522732036</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J6">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.32087666112309</v>
+        <v>1.752878</v>
       </c>
       <c r="N6">
-        <v>1.32087666112309</v>
+        <v>5.258634</v>
       </c>
       <c r="O6">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="P6">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="Q6">
-        <v>2228.738464600509</v>
+        <v>2961.118061291253</v>
       </c>
       <c r="R6">
-        <v>2228.738464600509</v>
+        <v>26650.06255162128</v>
       </c>
       <c r="S6">
-        <v>0.1300911334404731</v>
+        <v>0.1214335449043415</v>
       </c>
       <c r="T6">
-        <v>0.1300911334404731</v>
+        <v>0.1214335449043415</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J7">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.98664895049035</v>
+        <v>3.076282333333333</v>
       </c>
       <c r="N7">
-        <v>2.98664895049035</v>
+        <v>9.228847</v>
       </c>
       <c r="O7">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="P7">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="Q7">
-        <v>5039.425399913461</v>
+        <v>5196.730849987582</v>
       </c>
       <c r="R7">
-        <v>5039.425399913461</v>
+        <v>46770.57764988824</v>
       </c>
       <c r="S7">
-        <v>0.2941505127569834</v>
+        <v>0.2131145857631082</v>
       </c>
       <c r="T7">
-        <v>0.2941505127569834</v>
+        <v>0.2131145857631082</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J8">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.51479437242924</v>
+        <v>7.303088666666667</v>
       </c>
       <c r="N8">
-        <v>4.51479437242924</v>
+        <v>21.909266</v>
       </c>
       <c r="O8">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="P8">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="Q8">
-        <v>7617.892096783195</v>
+        <v>12337.02959023852</v>
       </c>
       <c r="R8">
-        <v>7617.892096783195</v>
+        <v>111033.2663121467</v>
       </c>
       <c r="S8">
-        <v>0.4446552312163661</v>
+        <v>0.5059336391603144</v>
       </c>
       <c r="T8">
-        <v>0.4446552312163661</v>
+        <v>0.5059336391603144</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J9">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.520977895375448</v>
+        <v>0.5918243333333334</v>
       </c>
       <c r="N9">
-        <v>0.520977895375448</v>
+        <v>1.775473</v>
       </c>
       <c r="O9">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="P9">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="Q9">
-        <v>879.0551826713498</v>
+        <v>999.762517725129</v>
       </c>
       <c r="R9">
-        <v>879.0551826713498</v>
+        <v>8997.862659526159</v>
       </c>
       <c r="S9">
-        <v>0.05131032056331296</v>
+        <v>0.04099961706251963</v>
       </c>
       <c r="T9">
-        <v>0.05131032056331296</v>
+        <v>0.04099961706251963</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H10">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I10">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J10">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.32087666112309</v>
+        <v>1.752878</v>
       </c>
       <c r="N10">
-        <v>1.32087666112309</v>
+        <v>5.258634</v>
       </c>
       <c r="O10">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="P10">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="Q10">
-        <v>48.05579902300229</v>
+        <v>176.9800325112487</v>
       </c>
       <c r="R10">
-        <v>48.05579902300229</v>
+        <v>1592.820292601238</v>
       </c>
       <c r="S10">
-        <v>0.002805009857632858</v>
+        <v>0.007257837168354854</v>
       </c>
       <c r="T10">
-        <v>0.002805009857632858</v>
+        <v>0.007257837168354854</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H11">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I11">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J11">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.98664895049035</v>
+        <v>3.076282333333333</v>
       </c>
       <c r="N11">
-        <v>2.98664895049035</v>
+        <v>9.228847</v>
       </c>
       <c r="O11">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="P11">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="Q11">
-        <v>108.6595031476978</v>
+        <v>310.5980834759254</v>
       </c>
       <c r="R11">
-        <v>108.6595031476978</v>
+        <v>2795.382751283329</v>
       </c>
       <c r="S11">
-        <v>0.006342439073979195</v>
+        <v>0.01273742739609948</v>
       </c>
       <c r="T11">
-        <v>0.006342439073979195</v>
+        <v>0.01273742739609948</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H12">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I12">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J12">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.51479437242924</v>
+        <v>7.303088666666667</v>
       </c>
       <c r="N12">
-        <v>4.51479437242924</v>
+        <v>21.909266</v>
       </c>
       <c r="O12">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="P12">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="Q12">
-        <v>164.2561015554373</v>
+        <v>737.3592855060068</v>
       </c>
       <c r="R12">
-        <v>164.2561015554373</v>
+        <v>6636.233569554061</v>
       </c>
       <c r="S12">
-        <v>0.00958760427266663</v>
+        <v>0.03023862948175767</v>
       </c>
       <c r="T12">
-        <v>0.00958760427266663</v>
+        <v>0.03023862948175767</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H13">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I13">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J13">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.520977895375448</v>
+        <v>0.5918243333333334</v>
       </c>
       <c r="N13">
-        <v>0.520977895375448</v>
+        <v>1.775473</v>
       </c>
       <c r="O13">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="P13">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="Q13">
-        <v>18.95408539833091</v>
+        <v>59.75378192565678</v>
       </c>
       <c r="R13">
-        <v>18.95408539833091</v>
+        <v>537.784037330911</v>
       </c>
       <c r="S13">
-        <v>0.001106347151969832</v>
+        <v>0.002450464118782653</v>
       </c>
       <c r="T13">
-        <v>0.001106347151969832</v>
+        <v>0.002450464118782653</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H14">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I14">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J14">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.32087666112309</v>
+        <v>1.752878</v>
       </c>
       <c r="N14">
-        <v>1.32087666112309</v>
+        <v>5.258634</v>
       </c>
       <c r="O14">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="P14">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="Q14">
-        <v>111.5596741978465</v>
+        <v>149.7181257201587</v>
       </c>
       <c r="R14">
-        <v>111.5596741978465</v>
+        <v>1347.463131481428</v>
       </c>
       <c r="S14">
-        <v>0.006511721627799488</v>
+        <v>0.006139843925947564</v>
       </c>
       <c r="T14">
-        <v>0.006511721627799488</v>
+        <v>0.006139843925947564</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H15">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I15">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J15">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.98664895049035</v>
+        <v>3.076282333333333</v>
       </c>
       <c r="N15">
-        <v>2.98664895049035</v>
+        <v>9.228847</v>
       </c>
       <c r="O15">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="P15">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="Q15">
-        <v>252.2488235780815</v>
+        <v>262.7537256629971</v>
       </c>
       <c r="R15">
-        <v>252.2488235780815</v>
+        <v>2364.783530966974</v>
       </c>
       <c r="S15">
-        <v>0.01472372639926622</v>
+        <v>0.01077536109119771</v>
       </c>
       <c r="T15">
-        <v>0.01472372639926622</v>
+        <v>0.01077536109119771</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H16">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I16">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J16">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.51479437242924</v>
+        <v>7.303088666666667</v>
       </c>
       <c r="N16">
-        <v>4.51479437242924</v>
+        <v>21.909266</v>
       </c>
       <c r="O16">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="P16">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="Q16">
-        <v>381.3141711734287</v>
+        <v>623.7768670389303</v>
       </c>
       <c r="R16">
-        <v>381.3141711734287</v>
+        <v>5613.991803350372</v>
       </c>
       <c r="S16">
-        <v>0.02225725158548717</v>
+        <v>0.0255806876409481</v>
       </c>
       <c r="T16">
-        <v>0.02225725158548717</v>
+        <v>0.0255806876409481</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H17">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I17">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J17">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.520977895375448</v>
+        <v>0.5918243333333334</v>
       </c>
       <c r="N17">
-        <v>0.520977895375448</v>
+        <v>1.775473</v>
       </c>
       <c r="O17">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="P17">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="Q17">
-        <v>44.00117435866228</v>
+        <v>50.54934224871845</v>
       </c>
       <c r="R17">
-        <v>44.00117435866228</v>
+        <v>454.944080238466</v>
       </c>
       <c r="S17">
-        <v>0.002568342017669753</v>
+        <v>0.002072995974759586</v>
       </c>
       <c r="T17">
-        <v>0.002568342017669753</v>
+        <v>0.002072995974759586</v>
       </c>
     </row>
   </sheetData>
